--- a/AttendanceManagement/wwwroot/ExcelTemplates/Bulk Shift Extension Import.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Bulk Shift Extension Import.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4ABC74A-6F44-4F6E-82EE-5BB86D9AE0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\internship041\source\repos\VLead Attendance Management System\Vlead\AttendanceManagement\wwwroot\ExcelTemplates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B18824-B831-489B-A348-F58058B14BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>StaffId</t>
   </si>
@@ -55,6 +50,60 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Early Shift(06:00-14:30)</t>
+  </si>
+  <si>
+    <t>Saturday Shift(06:00-11:00)</t>
+  </si>
+  <si>
+    <t>Morning Shift(07:00-15:30)</t>
+  </si>
+  <si>
+    <t>General Shift(08:00-16:30)</t>
+  </si>
+  <si>
+    <t>Sat Shift(08:00-13:00)</t>
+  </si>
+  <si>
+    <t>Day Shift(09:00-17:30)</t>
+  </si>
+  <si>
+    <t>Extended Day Shift(10:00-18:30)</t>
+  </si>
+  <si>
+    <t>Mid Shift(12:00-20:30)</t>
+  </si>
+  <si>
+    <t>Afternoon Shift(14:00-22:30)</t>
+  </si>
+  <si>
+    <t>Evening Shift(15:00-00:00)</t>
+  </si>
+  <si>
+    <t>Late Evening Shift(16:00-01:00)</t>
+  </si>
+  <si>
+    <t>Late Shift(17:00-02:00)</t>
+  </si>
+  <si>
+    <t>Night Shift(18:00-03:00)</t>
+  </si>
+  <si>
+    <t>Extended Night Shift(18:30-03:30)</t>
+  </si>
+  <si>
+    <t>Late Night Shift(19:30-04:30)</t>
+  </si>
+  <si>
+    <t>Overnight Shift(21:00-06:00)</t>
+  </si>
+  <si>
+    <t>Midnight Shift(22:00-07:00)</t>
+  </si>
+  <si>
+    <t>Weekly Off(00:00-00:00)</t>
   </si>
 </sst>
 </file>
@@ -430,20 +479,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -480,5 +529,125 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A54DC734-C859-454B-9B3F-7468A615F900}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7247F6-9FB1-4AF9-B5F2-F91777127E52}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AttendanceManagement/wwwroot/ExcelTemplates/Bulk Shift Extension Import.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Bulk Shift Extension Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\internship041\source\repos\VLead Attendance Management System\Vlead\AttendanceManagement\wwwroot\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B18824-B831-489B-A348-F58058B14BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD0272F-3B35-42D7-AF22-271F35B842BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7247F6-9FB1-4AF9-B5F2-F91777127E52}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
